--- a/data/statistical/filled_NaN_xlsx/甘肃省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/甘肃省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>41.7871</v>
       </c>
       <c r="E2">
-        <v>1720.807141900063</v>
+        <v>1720.807142645121</v>
       </c>
       <c r="F2">
         <v>5064.24</v>
@@ -609,85 +609,85 @@
         <v>6.71</v>
       </c>
       <c r="H2">
-        <v>45.23917367950192</v>
+        <v>33.22442865940358</v>
       </c>
       <c r="I2">
-        <v>4.517750257917214</v>
+        <v>4.517750257677108</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-1.250479195732623</v>
       </c>
       <c r="K2">
-        <v>32.80439349042717</v>
+        <v>32.80439348879736</v>
       </c>
       <c r="L2">
-        <v>1.786909156162712</v>
+        <v>2.205063358110215</v>
       </c>
       <c r="M2">
-        <v>370.9733665524982</v>
+        <v>370.9733665464446</v>
       </c>
       <c r="N2">
-        <v>172.0514705915703</v>
+        <v>172.0514705897076</v>
       </c>
       <c r="O2">
-        <v>26.77343136956915</v>
+        <v>26.77343136025593</v>
       </c>
       <c r="P2">
-        <v>356.9433613754809</v>
+        <v>356.9433613726869</v>
       </c>
       <c r="Q2">
-        <v>85.20132353086956</v>
+        <v>85.20132353034569</v>
       </c>
       <c r="R2">
-        <v>17.83321980945766</v>
+        <v>17.83321980701294</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-9399.5438580513</v>
       </c>
       <c r="T2">
-        <v>57859.63233757019</v>
+        <v>57859.63237094879</v>
       </c>
       <c r="U2">
-        <v>0.5632087913181749</v>
+        <v>0.5632087912090356</v>
       </c>
       <c r="V2">
-        <v>23.42132095305715</v>
+        <v>23.42132095166016</v>
       </c>
       <c r="W2">
-        <v>39.25720879109576</v>
+        <v>39.25720879156142</v>
       </c>
       <c r="X2">
-        <v>7783.269770998982</v>
+        <v>6551.083096139341</v>
       </c>
       <c r="Y2">
-        <v>70.27253296610434</v>
+        <v>70.27253296412528</v>
       </c>
       <c r="Z2">
-        <v>225985.3830239601</v>
+        <v>182144.455549771</v>
       </c>
       <c r="AA2">
-        <v>109.940559478011</v>
+        <v>282.6208371770185</v>
       </c>
       <c r="AB2">
-        <v>158795.5119190216</v>
+        <v>1277265.14358902</v>
       </c>
       <c r="AC2">
-        <v>177291.3162612915</v>
+        <v>6321260.653625488</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>29405.39861249924</v>
       </c>
       <c r="AE2">
-        <v>3905.853024810553</v>
+        <v>61136.44039273262</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>142088.4700307846</v>
       </c>
       <c r="AG2">
-        <v>904.1838594597625</v>
+        <v>169951.1610088348</v>
       </c>
       <c r="AH2">
-        <v>5193.280011882358</v>
+        <v>65042.04177097976</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>6.12</v>
       </c>
       <c r="H3">
-        <v>37.38235717835425</v>
+        <v>49.5229835636298</v>
       </c>
       <c r="I3">
         <v>4.4</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-1.563371301628649</v>
       </c>
       <c r="K3">
         <v>27.1461534614918</v>
@@ -743,13 +743,13 @@
         <v>85.62</v>
       </c>
       <c r="R3">
-        <v>14.67299019254278</v>
+        <v>14.6729901896324</v>
       </c>
       <c r="S3">
         <v>26210.9</v>
       </c>
       <c r="T3">
-        <v>64442.1470451355</v>
+        <v>64442.14707565308</v>
       </c>
       <c r="U3">
         <v>1.02</v>
@@ -764,34 +764,34 @@
         <v>8205</v>
       </c>
       <c r="Y3">
-        <v>72.58730494434712</v>
+        <v>72.58730494271731</v>
       </c>
       <c r="Z3">
-        <v>241980.6056799229</v>
+        <v>166403.6883865458</v>
       </c>
       <c r="AA3">
-        <v>96.95454548671842</v>
+        <v>299.7377736488525</v>
       </c>
       <c r="AB3">
-        <v>133679.689535141</v>
+        <v>1169630.973236084</v>
       </c>
       <c r="AC3">
-        <v>149523.3298912048</v>
+        <v>5456208.912750244</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>24233.80420517921</v>
       </c>
       <c r="AE3">
-        <v>3307.262803763151</v>
+        <v>65068.70507693291</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>119411.0976929665</v>
       </c>
       <c r="AG3">
-        <v>780.0432943966312</v>
+        <v>135691.6879281998</v>
       </c>
       <c r="AH3">
-        <v>4077.929731753044</v>
+        <v>61635.07988454401</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>5.91</v>
       </c>
       <c r="H4">
-        <v>44.54462840700697</v>
+        <v>34.88730639796529</v>
       </c>
       <c r="I4">
         <v>3.4</v>
       </c>
       <c r="J4">
-        <v>0.1717062336392701</v>
+        <v>0.1717062368988991</v>
       </c>
       <c r="K4">
         <v>28.4277668212426</v>
@@ -847,7 +847,7 @@
         <v>90.31999999999999</v>
       </c>
       <c r="R4">
-        <v>11.96338235074654</v>
+        <v>11.9633823473705</v>
       </c>
       <c r="S4">
         <v>29266.9</v>
@@ -868,34 +868,34 @@
         <v>8373</v>
       </c>
       <c r="Y4">
-        <v>74.74725549406139</v>
+        <v>74.74725549254799</v>
       </c>
       <c r="Z4">
         <v>367916</v>
       </c>
       <c r="AA4">
-        <v>85.0104895378463</v>
+        <v>284.8120785473238</v>
       </c>
       <c r="AB4">
-        <v>111208.2812395096</v>
+        <v>1077872.693752289</v>
       </c>
       <c r="AC4">
-        <v>124691.5683488846</v>
+        <v>4670909.145935059</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>19706.84915781021</v>
       </c>
       <c r="AE4">
-        <v>2760.135253623128</v>
+        <v>68292.97021007538</v>
       </c>
       <c r="AF4">
-        <v>4.746341452701017</v>
+        <v>98645.57888317108</v>
       </c>
       <c r="AG4">
-        <v>1708.203057189784</v>
+        <v>105247.7966184616</v>
       </c>
       <c r="AH4">
-        <v>913.2128513332957</v>
+        <v>58274.68378221989</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>3.3</v>
       </c>
       <c r="J5">
-        <v>3.954753414262086</v>
+        <v>3.954753417056054</v>
       </c>
       <c r="K5">
         <v>23.3564979989452</v>
@@ -972,34 +972,34 @@
         <v>9824</v>
       </c>
       <c r="Y5">
-        <v>76.75238461513072</v>
+        <v>76.75238461390836</v>
       </c>
       <c r="Z5">
         <v>247601</v>
       </c>
       <c r="AA5">
-        <v>74.10839163139462</v>
+        <v>298.5043394044984</v>
       </c>
       <c r="AB5">
-        <v>91381.28702831268</v>
+        <v>1001990.30512619</v>
       </c>
       <c r="AC5">
-        <v>102796.0316324234</v>
+        <v>3965361.353210449</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>15824.53347206116</v>
       </c>
       <c r="AE5">
-        <v>2264.470374345779</v>
+        <v>70809.23579359055</v>
       </c>
       <c r="AF5">
-        <v>11.9146341367159</v>
+        <v>79791.91360092163</v>
       </c>
       <c r="AG5">
-        <v>60.09965213630772</v>
+        <v>78619.48707485199</v>
       </c>
       <c r="AH5">
-        <v>4019.27428712113</v>
+        <v>54960.85346397758</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>5389</v>
       </c>
       <c r="Y6">
-        <v>78.60269230761332</v>
+        <v>78.60269230662379</v>
       </c>
       <c r="Z6">
         <v>145914</v>
       </c>
       <c r="AA6">
-        <v>64.2482517673634</v>
+        <v>247.7033352088903</v>
       </c>
       <c r="AB6">
-        <v>74198.70690536499</v>
+        <v>941983.8073768616</v>
       </c>
       <c r="AC6">
-        <v>83836.71974182129</v>
+        <v>3339565.534484863</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>12586.85714673996</v>
       </c>
       <c r="AE6">
-        <v>1820.268165975809</v>
+        <v>72617.50182628632</v>
       </c>
       <c r="AF6">
-        <v>18.32926828390919</v>
+        <v>62850.10184764862</v>
       </c>
       <c r="AG6">
-        <v>2366.542255200796</v>
+        <v>55806.75930118561</v>
       </c>
       <c r="AH6">
-        <v>8242.31590160449</v>
+        <v>51693.58892981708</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>153573</v>
       </c>
       <c r="AA7">
-        <v>55.43006994575262</v>
+        <v>281.4584877182202</v>
       </c>
       <c r="AB7">
-        <v>59660.54086780548</v>
+        <v>897853.2004814148</v>
       </c>
       <c r="AC7">
-        <v>67813.63267707825</v>
+        <v>2793521.689788818</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>9993.820182561874</v>
       </c>
       <c r="AE7">
-        <v>1427.528628468513</v>
+        <v>73717.76830887794</v>
       </c>
       <c r="AF7">
-        <v>23.99024389474653</v>
+        <v>47820.14362287521</v>
       </c>
       <c r="AG7">
-        <v>1991.672972088778</v>
+        <v>36809.61329555511</v>
       </c>
       <c r="AH7">
-        <v>7085.107824522582</v>
+        <v>48472.89017978311</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>167972</v>
       </c>
       <c r="AA8">
-        <v>47.65384616609663</v>
+        <v>227.7793043708692</v>
       </c>
       <c r="AB8">
-        <v>47766.78891563416</v>
+        <v>869598.4844512939</v>
       </c>
       <c r="AC8">
-        <v>54726.77043819427</v>
+        <v>2327229.81918335</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>8045.422579050064</v>
       </c>
       <c r="AE8">
-        <v>1086.251761883497</v>
+        <v>74110.0352408886</v>
       </c>
       <c r="AF8">
-        <v>28.89756096899509</v>
+        <v>34702.03892660141</v>
       </c>
       <c r="AG8">
-        <v>281.8864443739852</v>
+        <v>21628.04905891418</v>
       </c>
       <c r="AH8">
-        <v>6670.037186587235</v>
+        <v>45298.75721384585</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>212373</v>
       </c>
       <c r="AA9">
-        <v>40.91958042886108</v>
+        <v>249.6830008822614</v>
       </c>
       <c r="AB9">
-        <v>38517.45105171204</v>
+        <v>857219.6592979431</v>
       </c>
       <c r="AC9">
-        <v>44576.13302516937</v>
+        <v>1940689.922607422</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>6741.664336442947</v>
       </c>
       <c r="AE9">
-        <v>796.4375661611557</v>
+        <v>73794.30262303352</v>
       </c>
       <c r="AF9">
-        <v>33.05121950665489</v>
+        <v>23495.78775787354</v>
       </c>
       <c r="AG9">
-        <v>3083.201228468614</v>
+        <v>10262.06659030914</v>
       </c>
       <c r="AH9">
-        <v>6068.953897797461</v>
+        <v>42171.19003202021</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>232761</v>
       </c>
       <c r="AA10">
-        <v>35.22727273311466</v>
+        <v>288.9640836543934</v>
       </c>
       <c r="AB10">
-        <v>31912.52727413177</v>
+        <v>860716.7249984741</v>
       </c>
       <c r="AC10">
-        <v>37361.72043800354</v>
+        <v>1633902.00012207</v>
       </c>
       <c r="AD10">
-        <v>14.86363635212183</v>
+        <v>6082.545454502106</v>
       </c>
       <c r="AE10">
-        <v>558.0860413461924</v>
+        <v>72770.57045435905</v>
       </c>
       <c r="AF10">
-        <v>36.45121950749308</v>
+        <v>14201.3901181221</v>
       </c>
       <c r="AG10">
-        <v>1901.328524921498</v>
+        <v>2711.665891647339</v>
       </c>
       <c r="AH10">
-        <v>6853.426855418473</v>
+        <v>39090.18863426149</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>189807</v>
       </c>
       <c r="AA11">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="AB11">
-        <v>23901</v>
+        <v>741991</v>
       </c>
       <c r="AC11">
-        <v>22546</v>
+        <v>1000254</v>
       </c>
       <c r="AD11">
-        <v>59</v>
+        <v>4112</v>
       </c>
       <c r="AE11">
-        <v>355</v>
+        <v>58739</v>
       </c>
       <c r="AF11">
-        <v>35</v>
+        <v>1504</v>
       </c>
       <c r="AG11">
-        <v>60</v>
+        <v>9080</v>
       </c>
       <c r="AH11">
-        <v>4263</v>
+        <v>41750</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>177330</v>
       </c>
       <c r="AA12">
-        <v>39</v>
+        <v>287</v>
       </c>
       <c r="AB12">
-        <v>29271</v>
+        <v>922229</v>
       </c>
       <c r="AC12">
-        <v>34980</v>
+        <v>1249324</v>
       </c>
       <c r="AD12">
-        <v>109</v>
+        <v>7861</v>
       </c>
       <c r="AE12">
-        <v>273</v>
+        <v>85485</v>
       </c>
       <c r="AF12">
-        <v>47</v>
+        <v>1016</v>
       </c>
       <c r="AG12">
-        <v>26</v>
+        <v>9511</v>
       </c>
       <c r="AH12">
-        <v>4193</v>
+        <v>36693</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>174470</v>
       </c>
       <c r="AA13">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="AB13">
-        <v>30488</v>
+        <v>1065430</v>
       </c>
       <c r="AC13">
-        <v>43730</v>
+        <v>1500594</v>
       </c>
       <c r="AD13">
-        <v>102</v>
+        <v>8714</v>
       </c>
       <c r="AE13">
-        <v>151.8074921667576</v>
+        <v>78880</v>
       </c>
       <c r="AF13">
-        <v>42.12926829094067</v>
+        <v>975</v>
       </c>
       <c r="AG13">
-        <v>2776.046571853633</v>
+        <v>5475</v>
       </c>
       <c r="AH13">
-        <v>1583</v>
+        <v>16091</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>214025</v>
       </c>
       <c r="AA14">
-        <v>27</v>
+        <v>304</v>
       </c>
       <c r="AB14">
-        <v>40671</v>
+        <v>1107598</v>
       </c>
       <c r="AC14">
-        <v>54866</v>
+        <v>1564368</v>
       </c>
       <c r="AD14">
-        <v>197</v>
+        <v>10399</v>
       </c>
       <c r="AE14">
-        <v>119.3066509068012</v>
+        <v>56578</v>
       </c>
       <c r="AF14">
-        <v>42.5146341456566</v>
+        <v>693</v>
       </c>
       <c r="AG14">
-        <v>1243.274019048528</v>
+        <v>5572</v>
       </c>
       <c r="AH14">
-        <v>21248</v>
+        <v>13838</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>319364</v>
       </c>
       <c r="AA15">
-        <v>26</v>
+        <v>313</v>
       </c>
       <c r="AB15">
-        <v>33191</v>
+        <v>1202250</v>
       </c>
       <c r="AC15">
-        <v>37185</v>
+        <v>1498012</v>
       </c>
       <c r="AD15">
-        <v>384</v>
+        <v>13044</v>
       </c>
       <c r="AE15">
-        <v>128</v>
+        <v>44286</v>
       </c>
       <c r="AF15">
-        <v>40</v>
+        <v>675</v>
       </c>
       <c r="AG15">
-        <v>465</v>
+        <v>4778</v>
       </c>
       <c r="AH15">
-        <v>1788</v>
+        <v>32478</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>325580</v>
       </c>
       <c r="AA16">
-        <v>23</v>
+        <v>293</v>
       </c>
       <c r="AB16">
-        <v>39084</v>
+        <v>1299264</v>
       </c>
       <c r="AC16">
-        <v>36061</v>
+        <v>1572389</v>
       </c>
       <c r="AD16">
-        <v>429</v>
+        <v>16129</v>
       </c>
       <c r="AE16">
-        <v>50</v>
+        <v>42185</v>
       </c>
       <c r="AF16">
-        <v>41.02439024508931</v>
+        <v>362</v>
       </c>
       <c r="AG16">
-        <v>3643.918381677781</v>
+        <v>5817</v>
       </c>
       <c r="AH16">
-        <v>4852</v>
+        <v>40906</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>258.3578</v>
       </c>
       <c r="K17">
-        <v>10.83148989733309</v>
+        <v>10.83148989907932</v>
       </c>
       <c r="L17">
-        <v>1.976406329378652</v>
+        <v>1.576564170580586</v>
       </c>
       <c r="M17">
         <v>17.6017116584479</v>
@@ -2226,28 +2226,28 @@
         <v>325431</v>
       </c>
       <c r="AA17">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="AB17">
-        <v>50753.8</v>
+        <v>1317647.4</v>
       </c>
       <c r="AC17">
-        <v>57254</v>
+        <v>1622255.3</v>
       </c>
       <c r="AD17">
-        <v>446</v>
+        <v>19561</v>
       </c>
       <c r="AE17">
-        <v>645</v>
+        <v>31448</v>
       </c>
       <c r="AF17">
-        <v>39.14878048980609</v>
+        <v>100</v>
       </c>
       <c r="AG17">
-        <v>2013</v>
+        <v>6454</v>
       </c>
       <c r="AH17">
-        <v>553</v>
+        <v>17251</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>287.3</v>
       </c>
       <c r="K18">
-        <v>12.01129418448545</v>
+        <v>12.01129418611526</v>
       </c>
       <c r="L18">
-        <v>1.689614677148628</v>
+        <v>1.553319670251057</v>
       </c>
       <c r="M18">
         <v>15.2205838660113</v>
@@ -2312,13 +2312,13 @@
         <v>22370</v>
       </c>
       <c r="U18">
-        <v>1.596923076758685</v>
+        <v>1.596923076795065</v>
       </c>
       <c r="V18">
         <v>96.40000000000001</v>
       </c>
       <c r="W18">
-        <v>104.2086373646744</v>
+        <v>104.2086373660713</v>
       </c>
       <c r="X18">
         <v>5963</v>
@@ -2330,28 +2330,28 @@
         <v>392765</v>
       </c>
       <c r="AA18">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="AB18">
-        <v>94593.2</v>
+        <v>1341956.8</v>
       </c>
       <c r="AC18">
-        <v>109714.5</v>
+        <v>1745713.9</v>
       </c>
       <c r="AD18">
-        <v>479</v>
+        <v>24753</v>
       </c>
       <c r="AE18">
-        <v>156.2</v>
+        <v>53926.1</v>
       </c>
       <c r="AF18">
-        <v>36.51951219793409</v>
+        <v>8672.93602848053</v>
       </c>
       <c r="AG18">
-        <v>6451.5</v>
+        <v>144374.5</v>
       </c>
       <c r="AH18">
-        <v>5014.8</v>
+        <v>8778.4</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>55.0171</v>
       </c>
       <c r="E19">
-        <v>16664.15714289248</v>
+        <v>16664.15714196861</v>
       </c>
       <c r="F19">
         <v>24453.8699</v>
@@ -2386,10 +2386,10 @@
         <v>283.9</v>
       </c>
       <c r="K19">
-        <v>13.5216815371532</v>
+        <v>13.52168153936509</v>
       </c>
       <c r="L19">
-        <v>1.787623066588038</v>
+        <v>1.522810431146916</v>
       </c>
       <c r="M19">
         <v>12.9516075381668</v>
@@ -2416,13 +2416,13 @@
         <v>711</v>
       </c>
       <c r="U19">
-        <v>1.505554944866162</v>
+        <v>1.505554944902542</v>
       </c>
       <c r="V19">
         <v>97.09999999999999</v>
       </c>
       <c r="W19">
-        <v>118.620697804261</v>
+        <v>118.6206978065893</v>
       </c>
       <c r="X19">
         <v>6105</v>
@@ -2434,28 +2434,28 @@
         <v>369085</v>
       </c>
       <c r="AA19">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="AB19">
-        <v>88613.10000000001</v>
+        <v>1473136.4</v>
       </c>
       <c r="AC19">
-        <v>121063.2</v>
+        <v>2167735.7</v>
       </c>
       <c r="AD19">
-        <v>476</v>
+        <v>27149</v>
       </c>
       <c r="AE19">
-        <v>1015</v>
+        <v>38880.1</v>
       </c>
       <c r="AF19">
-        <v>33.13658536970615</v>
+        <v>16585.2201404571</v>
       </c>
       <c r="AG19">
-        <v>1039.7</v>
+        <v>79664.89999999999</v>
       </c>
       <c r="AH19">
-        <v>1923.8</v>
+        <v>15392.6</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>55.3109</v>
       </c>
       <c r="E20">
-        <v>18086.12731088698</v>
+        <v>18086.12730979919</v>
       </c>
       <c r="F20">
         <v>24614.609</v>
@@ -2490,10 +2490,10 @@
         <v>318.7829</v>
       </c>
       <c r="K20">
-        <v>15.36265195591841</v>
+        <v>15.3626519581303</v>
       </c>
       <c r="L20">
-        <v>1.957276845874194</v>
+        <v>2.146903510741284</v>
       </c>
       <c r="M20">
         <v>9.511572970155379</v>
@@ -2520,13 +2520,13 @@
         <v>670</v>
       </c>
       <c r="U20">
-        <v>1.395836780640821</v>
+        <v>1.3958367806772</v>
       </c>
       <c r="V20">
         <v>97.2</v>
       </c>
       <c r="W20">
-        <v>134.2507107332349</v>
+        <v>134.2507107360289</v>
       </c>
       <c r="X20">
         <v>4861</v>
@@ -2538,28 +2538,28 @@
         <v>341959</v>
       </c>
       <c r="AA20">
-        <v>32</v>
+        <v>246</v>
       </c>
       <c r="AB20">
-        <v>100039</v>
+        <v>1579747</v>
       </c>
       <c r="AC20">
-        <v>99121</v>
+        <v>2467159</v>
       </c>
       <c r="AD20">
-        <v>674</v>
+        <v>31243</v>
       </c>
       <c r="AE20">
-        <v>900</v>
+        <v>41350</v>
       </c>
       <c r="AF20">
-        <v>29.00000000465661</v>
+        <v>1000</v>
       </c>
       <c r="AG20">
-        <v>68</v>
+        <v>198939</v>
       </c>
       <c r="AH20">
-        <v>544</v>
+        <v>8989</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>52.9017</v>
       </c>
       <c r="E21">
-        <v>19568.42520990968</v>
+        <v>19568.42520870268</v>
       </c>
       <c r="F21">
         <v>25756.6</v>
@@ -2594,25 +2594,25 @@
         <v>282.6584</v>
       </c>
       <c r="K21">
-        <v>17.53420544031542</v>
+        <v>17.53420544299297</v>
       </c>
       <c r="L21">
-        <v>1.86912201432841</v>
+        <v>1.817295357919711</v>
       </c>
       <c r="M21">
         <v>8.26617963375903</v>
       </c>
       <c r="N21">
-        <v>138.3593137216521</v>
+        <v>138.3593137230491</v>
       </c>
       <c r="O21">
-        <v>111.2340196007863</v>
+        <v>111.2340196082368</v>
       </c>
       <c r="P21">
         <v>596.6</v>
       </c>
       <c r="Q21">
-        <v>98.03504901833367</v>
+        <v>98.03504901897395</v>
       </c>
       <c r="R21">
         <v>36.3</v>
@@ -2621,49 +2621,49 @@
         <v>359486</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-21569.92649030685</v>
       </c>
       <c r="U21">
-        <v>1.267768584104488</v>
+        <v>1.267768584126316</v>
       </c>
       <c r="V21">
         <v>97.3</v>
       </c>
       <c r="W21">
-        <v>151.0986761506647</v>
+        <v>151.0986761534587</v>
       </c>
       <c r="X21">
-        <v>7204.80898812094</v>
+        <v>6106.991413731007</v>
       </c>
       <c r="Y21">
-        <v>87.77873626275687</v>
+        <v>87.77873626328073</v>
       </c>
       <c r="Z21">
         <v>178184</v>
       </c>
       <c r="AA21">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="AB21">
-        <v>143996</v>
+        <v>2119085</v>
       </c>
       <c r="AC21">
-        <v>148188</v>
+        <v>3959513</v>
       </c>
       <c r="AD21">
-        <v>887</v>
+        <v>43932</v>
       </c>
       <c r="AE21">
-        <v>1332.75554677844</v>
+        <v>2443</v>
       </c>
       <c r="AF21">
-        <v>24.1097561030183</v>
+        <v>57992</v>
       </c>
       <c r="AG21">
-        <v>5579</v>
+        <v>235123</v>
       </c>
       <c r="AH21">
-        <v>95</v>
+        <v>5389</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>51.2538</v>
       </c>
       <c r="E22">
-        <v>21111.05084002018</v>
+        <v>21111.05083866417</v>
       </c>
       <c r="F22">
         <v>25206.9972</v>
@@ -2692,82 +2692,82 @@
         <v>54.19</v>
       </c>
       <c r="I22">
-        <v>3.461609907026286</v>
+        <v>3.461609907288221</v>
       </c>
       <c r="J22">
-        <v>381.6059108832851</v>
+        <v>381.6059108795598</v>
       </c>
       <c r="K22">
-        <v>20.03634199046064</v>
+        <v>20.03634199337102</v>
       </c>
       <c r="L22">
-        <v>1.819814274902371</v>
+        <v>2.029014639290287</v>
       </c>
       <c r="M22">
-        <v>7.279871195554733</v>
+        <v>7.279871202539653</v>
       </c>
       <c r="N22">
-        <v>139.6105521112913</v>
+        <v>139.6105521126883</v>
       </c>
       <c r="O22">
-        <v>130.0178586090915</v>
+        <v>130.0178586156107</v>
       </c>
       <c r="P22">
-        <v>474.6049333615229</v>
+        <v>474.6049333652481</v>
       </c>
       <c r="Q22">
-        <v>97.28607585001737</v>
+        <v>97.28607585077407</v>
       </c>
       <c r="R22">
-        <v>40.24676469981205</v>
+        <v>40.24676470865961</v>
       </c>
       <c r="S22">
         <v>342662</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-37709.33825731277</v>
       </c>
       <c r="U22">
-        <v>1.121350355249888</v>
+        <v>1.121350355271716</v>
       </c>
       <c r="V22">
-        <v>101.9244788439246</v>
+        <v>101.9244788446231</v>
       </c>
       <c r="W22">
-        <v>169.1645940565504</v>
+        <v>169.1645940602757</v>
       </c>
       <c r="X22">
-        <v>7433.941967937607</v>
+        <v>6874.450096819976</v>
       </c>
       <c r="Y22">
-        <v>87.15190109756077</v>
+        <v>87.15190109820105</v>
       </c>
       <c r="Z22">
-        <v>286907.6358836911</v>
+        <v>353978.0388486139</v>
       </c>
       <c r="AA22">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="AB22">
-        <v>155731.9</v>
+        <v>2209861.5</v>
       </c>
       <c r="AC22">
-        <v>189693.6</v>
+        <v>4359766.7</v>
       </c>
       <c r="AD22">
-        <v>898</v>
+        <v>49331</v>
       </c>
       <c r="AE22">
-        <v>1711.956072583795</v>
+        <v>1483.7</v>
       </c>
       <c r="AF22">
-        <v>18.7</v>
+        <v>51793.1936354637</v>
       </c>
       <c r="AG22">
-        <v>48.2</v>
+        <v>127692.1</v>
       </c>
       <c r="AH22">
-        <v>1841</v>
+        <v>8158.1</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>51.77</v>
       </c>
       <c r="E23">
-        <v>22714.00420121849</v>
+        <v>22714.00419969857</v>
       </c>
       <c r="F23">
-        <v>29528.54409235716</v>
+        <v>29528.54409269989</v>
       </c>
       <c r="G23">
         <v>-1.33</v>
       </c>
       <c r="H23">
-        <v>37.03763189098686</v>
+        <v>43.61629880724548</v>
       </c>
       <c r="I23">
-        <v>3.69781217736454</v>
+        <v>3.697812177677406</v>
       </c>
       <c r="J23">
-        <v>422.2524116407149</v>
+        <v>422.2524116351269</v>
       </c>
       <c r="K23">
-        <v>22.86906160670333</v>
+        <v>22.86906160984654</v>
       </c>
       <c r="L23">
-        <v>1.827929959616656</v>
+        <v>2.103912064686087</v>
       </c>
       <c r="M23">
-        <v>8.381526004523039</v>
+        <v>8.381526011973619</v>
       </c>
       <c r="N23">
-        <v>141.1642414813396</v>
+        <v>141.164241482853</v>
       </c>
       <c r="O23">
-        <v>150.2355521051213</v>
+        <v>150.2355521135032</v>
       </c>
       <c r="P23">
-        <v>509.4909698553383</v>
+        <v>509.4909698581323</v>
       </c>
       <c r="Q23">
-        <v>96.3946594412555</v>
+        <v>96.39465944212861</v>
       </c>
       <c r="R23">
-        <v>46.09897058038041</v>
+        <v>46.0989705909742</v>
       </c>
       <c r="S23">
-        <v>331225.5561375618</v>
+        <v>331225.5561432838</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-55044.64089250565</v>
       </c>
       <c r="U23">
         <v>0.9565820940697449</v>
       </c>
       <c r="V23">
-        <v>102.9892961819423</v>
+        <v>102.9892961825244</v>
       </c>
       <c r="W23">
-        <v>188.4484644513577</v>
+        <v>188.4484644560143</v>
       </c>
       <c r="X23">
-        <v>6580.079183706336</v>
+        <v>7477.511570248948</v>
       </c>
       <c r="Y23">
-        <v>86.37024450383615</v>
+        <v>86.37024450436002</v>
       </c>
       <c r="Z23">
-        <v>294354.4320573232</v>
+        <v>281900.7807355511</v>
       </c>
       <c r="AA23">
-        <v>56.04545454960316</v>
+        <v>235.7059441969909</v>
       </c>
       <c r="AB23">
-        <v>186690.2000150681</v>
+        <v>2350884.647918701</v>
       </c>
       <c r="AC23">
-        <v>210770.8159427643</v>
+        <v>4903088.646148682</v>
       </c>
       <c r="AD23">
-        <v>1011.77272731252</v>
+        <v>56176.18182396889</v>
       </c>
       <c r="AE23">
-        <v>2142.619269311428</v>
+        <v>-4965.906814098358</v>
       </c>
       <c r="AF23">
-        <v>12.06829269020818</v>
+        <v>67352.89187717438</v>
       </c>
       <c r="AG23">
-        <v>3602.385669437427</v>
+        <v>251774.3977622986</v>
       </c>
       <c r="AH23">
-        <v>-540.3958762934258</v>
+        <v>3274.656816765666</v>
       </c>
     </row>
   </sheetData>
